--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291728.572734661</v>
+        <v>2288710.982333725</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9788167.43659935</v>
+        <v>9788167.436599348</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>125.7220754819249</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>163.1565339377327</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.4994223265506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>50.36218625475002</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.065358757363</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>83.82466560786662</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>138.9470306844524</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>141.4106407312797</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>49.20343734336431</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>234.7283054736621</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>32.62167232804398</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>86.47365081503108</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>46.25307783771848</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>179.0556349746132</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.45915033354767</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>102.6104623981308</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>160.3287574768421</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>191.6534898356759</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>150.1127030201467</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.53167077398636</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.0766165026755</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>81.2342443714037</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>22.34516675270174</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274157</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,13 +3244,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>132.8441860085624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056475</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.6132753703723</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3442,7 +3442,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>276.7609407044663</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819324</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.7935996261306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.8449448028125</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4034,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>165.7349742074992</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>100.3251206108405</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.763701299258</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770186</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770186</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.955293888756</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y5" t="n">
-        <v>1596.687254739904</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>643.457604804549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.5995062532301</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1130.934501327943</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C8" t="n">
-        <v>1130.934501327943</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>772.6688027211928</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>772.6688027211928</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>765.7233019719894</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>347.7594938701762</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564835</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1130.934501327943</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>500.8649647332663</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8649647332663</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5018,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698951</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>642.0559188686033</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>642.0559188686033</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X13" t="n">
-        <v>414.0663679705859</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
@@ -5464,22 +5464,22 @@
         <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383447</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W16" t="n">
-        <v>494.1428252862102</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881928</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>1187.921157035281</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,7 +5510,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,31 +5580,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O18" t="n">
         <v>2016.139981183167</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>985.4001231459587</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>816.4639402180518</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>666.347300805716</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771464</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655776</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286171</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286171</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.8933943850869</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1908.095276920733</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O21" t="n">
-        <v>2187.63534213943</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4385.377505664876</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C22" t="n">
-        <v>4216.441322736969</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D22" t="n">
-        <v>4066.324683324633</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E22" t="n">
-        <v>3918.41158974224</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F22" t="n">
-        <v>3771.52164224433</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W22" t="n">
-        <v>4606.170084808406</v>
+        <v>472.0965898562136</v>
       </c>
       <c r="X22" t="n">
-        <v>4606.170084808406</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="Y22" t="n">
-        <v>4385.377505664876</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>2771.824048372321</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292011</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>4289.159124556161</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>397.7517393246783</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1347.28727760826</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1123.501862397766</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1123.501862397766</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>868.8173741918786</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>579.400204154918</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>579.400204154918</v>
+        <v>633.8358010296371</v>
       </c>
       <c r="Y25" t="n">
-        <v>579.400204154918</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6215,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6239,28 +6239,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095317</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>3166.79740091475</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M27" t="n">
-        <v>3474.117534194712</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>4278.529112458863</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>4558.06917767756</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4763.09165845977</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>299.8132378906425</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C28" t="n">
-        <v>299.8132378906425</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D28" t="n">
-        <v>299.8132378906425</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>299.8132378906425</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>299.8132378906425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>131.6379162104631</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247865</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188996</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>709.4512536188996</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>481.4617027208823</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.4617027208823</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>420.3226148324578</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C31" t="n">
-        <v>397.7517393246783</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324578</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W31" t="n">
-        <v>420.3226148324578</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X31" t="n">
-        <v>420.3226148324578</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y31" t="n">
-        <v>420.3226148324578</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372323</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>3540.192194764784</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>3870.054822428817</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>4539.518583731477</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4744.541064513686</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3924.337302507101</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>3924.337302507101</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094765</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>786.0822064765146</v>
       </c>
       <c r="V34" t="n">
-        <v>4213.754472544061</v>
+        <v>531.3977182706277</v>
       </c>
       <c r="W34" t="n">
-        <v>3924.337302507101</v>
+        <v>241.9805482336671</v>
       </c>
       <c r="X34" t="n">
-        <v>3924.337302507101</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>3924.337302507101</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.9892362638</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.05892046586</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372324</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>3079.144181652286</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>3409.006809316319</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>4078.470570618978</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.74515569858</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4205.677811333272</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C37" t="n">
-        <v>4205.677811333272</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D37" t="n">
-        <v>4055.561171920936</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E37" t="n">
-        <v>3924.638671546823</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576119</v>
+        <v>1219.359764795815</v>
       </c>
       <c r="V37" t="n">
-        <v>4495.094981370233</v>
+        <v>964.6752765899282</v>
       </c>
       <c r="W37" t="n">
-        <v>4205.677811333272</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="X37" t="n">
-        <v>4205.677811333272</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y37" t="n">
-        <v>4205.677811333272</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766204</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920733</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617345004</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131563</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766204</v>
+        <v>3443.999848753677</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.0640635030469</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C43" t="n">
-        <v>804.0893717830343</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D43" t="n">
-        <v>653.9727323706985</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333287</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333287</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.712528333287</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.712528333287</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.712528333287</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.836466556557</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>2041.248044820708</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405893</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1331.507205701843</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1331.507205701843</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="V46" t="n">
-        <v>675.0071030383447</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="W46" t="n">
-        <v>573.668597370829</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="X46" t="n">
-        <v>573.668597370829</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="Y46" t="n">
-        <v>573.668597370829</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83804904622804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907247</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>73.64859338270588</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,22 +9480,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>145.2351313103791</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>8.406710013100337</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.23759968302022</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.47535963978139</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>285.1031356539316</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>145.2351313103788</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="M42" t="n">
-        <v>20.63789864135396</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>398.9629823660887</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>219.515970995784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>200.0493475215599</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5789023442188</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>107.4673633619778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.3728298483896</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.82350024843832</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,13 +23944,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,22 +24127,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.164810986535457</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271336</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>47.80810696345657</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.1779846150508</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>114.8372118648606</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>137.3504089806911</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>144.9016543459261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338635</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,16 +25078,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>119.2934573152656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338969</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25315,13 +25315,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>16.82068727619682</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,7 +25366,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>9.476411694110993</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.79105372596416</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>55.40187629581534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>32.18583577610408</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>186.1978777257505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327915</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="L2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327916</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430953</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430946</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430945</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254457.4621147105</v>
+        <v>-254872.6766241775</v>
       </c>
       <c r="C6" t="n">
-        <v>335510.417099834</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="D6" t="n">
-        <v>335510.4170998342</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="E6" t="n">
-        <v>-84418.17944713045</v>
+        <v>-84752.34841425961</v>
       </c>
       <c r="F6" t="n">
-        <v>440741.8570297659</v>
+        <v>440407.6880626366</v>
       </c>
       <c r="G6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626366</v>
       </c>
       <c r="H6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="I6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626369</v>
       </c>
       <c r="J6" t="n">
-        <v>264318.6378371728</v>
+        <v>263984.4688700428</v>
       </c>
       <c r="K6" t="n">
-        <v>440741.8570297657</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="L6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626366</v>
       </c>
       <c r="M6" t="n">
-        <v>305940.8417959287</v>
+        <v>305606.6728287995</v>
       </c>
       <c r="N6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626359</v>
       </c>
       <c r="O6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="P6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626363</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541004</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,19 +26793,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="G4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253573</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>281.1539702597865</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>206.5745667407364</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.332557855386682</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>208.8197898846882</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>298.878782462663</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>168.1725798986905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>62.84052637229121</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>184.9757420799048</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>244.8272979247739</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>162.9421016066546</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>51.79469286292888</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.460345829981158e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.751381063403296e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-8.115210091221213e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>326.2624260966944</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>642.866388531833</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.580930408112</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879393</v>
@@ -35969,13 +35969,13 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>510.1640057735812</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>356.0122956238141</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714619</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187824</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
@@ -36200,22 +36200,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>352.3285462419038</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507416</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>257.6644149691247</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>373.6013019241284</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>117.4883924248555</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778055997</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>492.1965505854564</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>282.0391115195485</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>427.598833551487</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336981</v>
       </c>
       <c r="M42" t="n">
-        <v>331.0622756918203</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>709.3873594165551</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288710.982333725</v>
+        <v>2364240.651998531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>125.7220754819249</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.764863467406604</v>
+        <v>211.5007599454561</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>88.18799940186481</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>50.36218625475002</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>11.75685339834098</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>141.4106407312797</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>38.53074475532065</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>234.7283054736621</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>142.4506620316754</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>86.47365081503108</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0298200757387</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>102.6104623981308</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.6534898356759</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.1868883872271</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>31.53167077398636</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.2342443714037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056475</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>276.7609407044663</v>
+        <v>139.7568420184986</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>140.5678108961687</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>118.3913071106258</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>165.7349742074992</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3647613633757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2372.61483931396</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2372.61483931396</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1982.475507338148</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4747,22 +4749,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.103882821189</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>250.6112985851279</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>250.6112985851279</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>250.6112985851279</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>250.6112985851279</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>250.6112985851279</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>250.6112985851279</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.86292601765805</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.86292601765805</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>471.403877728658</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>471.403877728658</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>471.403877728658</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>471.403877728658</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>250.6112985851279</v>
       </c>
     </row>
     <row r="11">
@@ -5018,37 +5020,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1355.026712950149</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.64913843807</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="X13" t="n">
-        <v>983.6595875400524</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.8670083965222</v>
+        <v>879.5496456007323</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,19 +5433,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.921157035281</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.921157035281</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.921157035281</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.921157035281</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5512,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851559</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515592</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.4001231459587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>816.4639402180518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>666.347300805716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.048587976198</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1305.326886885503</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.198248099061</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V22" t="n">
-        <v>761.5137598931742</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562136</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581963</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581963</v>
+        <v>3578.842145943456</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372321</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292011</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556161</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774858</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1188.662491981114</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1188.662491981114</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1188.662491981114</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>933.9780037752275</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>644.5608337382669</v>
       </c>
       <c r="X25" t="n">
-        <v>633.8358010296371</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.0432218861031</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890052</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4520.375241843984</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>4231.246603057542</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>3976.562114851655</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y28" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4744.160657054477</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843983</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.246603057541</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851654</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814693</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6722,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6868,40 +6870,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557898</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473451</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262956</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706277</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336671</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6931,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1219.359764795815</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V37" t="n">
-        <v>964.6752765899282</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W37" t="n">
-        <v>675.2581065529675</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X37" t="n">
-        <v>675.2581065529675</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.2581065529675</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615139</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>822.148054050878</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>822.148054050878</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>822.148054050878</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>3893.336020727022</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>3603.918850690061</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916676</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>860.7301020851612</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1331.507205701843</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.507205701843</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1042.378566915401</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V46" t="n">
-        <v>1042.378566915401</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W46" t="n">
-        <v>1042.378566915401</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X46" t="n">
-        <v>1042.378566915401</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y46" t="n">
-        <v>1042.378566915401</v>
+        <v>364.7173639423009</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>73.64859338270588</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863226</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,25 +9716,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9881,10 +9883,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10671,19 +10673,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.7176547498453</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>32.78140656352423</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11075,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>143.7866903669019</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>200.0493475215599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5789023442188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>26.21700102288918</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>43.82350024843832</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542497</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>29.89407122271336</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0.733921596376149</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>194.1779846150508</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.3504089806911</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338635</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>9.476411694110993</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.6695415024087</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>142.1963834921096</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.2241659075866</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>32.18583577610408</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.238904999</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327923</v>
@@ -26332,28 +26334,28 @@
         <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327915</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327923</v>
-      </c>
       <c r="M2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.683632792</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143916</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26473,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241775</v>
+        <v>-254872.6766241777</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903669</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425961</v>
+        <v>-84752.34841425942</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626366</v>
+        <v>440407.6880626368</v>
       </c>
       <c r="G6" t="n">
         <v>440407.6880626366</v>
       </c>
       <c r="H6" t="n">
+        <v>440407.6880626364</v>
+      </c>
+      <c r="I6" t="n">
+        <v>440407.6880626364</v>
+      </c>
+      <c r="J6" t="n">
+        <v>263984.4688700432</v>
+      </c>
+      <c r="K6" t="n">
         <v>440407.6880626365</v>
       </c>
-      <c r="I6" t="n">
-        <v>440407.6880626369</v>
-      </c>
-      <c r="J6" t="n">
-        <v>263984.4688700428</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>440407.6880626363</v>
       </c>
-      <c r="L6" t="n">
-        <v>440407.6880626366</v>
-      </c>
       <c r="M6" t="n">
-        <v>305606.6728287995</v>
+        <v>305606.6728287991</v>
       </c>
       <c r="N6" t="n">
-        <v>440407.6880626359</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="O6" t="n">
-        <v>440407.6880626365</v>
+        <v>440407.6880626362</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626363</v>
+        <v>440407.6880626364</v>
       </c>
     </row>
   </sheetData>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,10 +26804,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>281.1539702597865</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>194.1370723978101</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.8197898846882</v>
+        <v>7.083893406638708</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>277.0848923691427</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>298.878782462663</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>342.926188222342</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.8272979247739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>6.669214433216347</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>51.79469286292888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>570.7728848187828</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>356.0122956238141</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178474</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36601,10 +36603,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36674,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>618.3470930053976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37238,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778055997</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206028</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37391,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.7306875349194</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>282.0391115195485</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37640,7 +37642,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,13 +37797,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364240.651998531</v>
+        <v>2357223.637106818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9788167.436599348</v>
+        <v>9788167.43659935</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>112.9856999467127</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>22.31124795984768</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>14.82811972447736</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.5007599454561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>88.18799940186481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>325.9002695577317</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>11.75685339834098</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>346.6999128968758</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.53074475532065</v>
+        <v>26.3288200405003</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.482788338502</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>142.4506620316754</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338504</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>141.0298200757387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>176.8688121773851</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>161.4046520073175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.1868883872271</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>221.7069481094552</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.35146980185857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>212.5748148019235</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>66.75250548749344</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,13 +3480,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>139.7568420184986</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961687</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.29718497126802</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>118.3913071106258</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>15.75208669539955</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1536.273892958084</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1150.48564035984</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>739.4997355702321</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>321.535927468419</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2674.612476917366</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.850691555458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.0749338020197</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>485.0749338020197</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>485.0749338020197</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598057</v>
+        <v>1702.337823625995</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1333.375306685583</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1333.375306685583</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>947.5870540873386</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>536.6011492977311</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1280.556556803303</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.556556803303</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843237</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.295728843237</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1667.156396867425</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.6112985851279</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>250.6112985851279</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>250.6112985851279</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>250.6112985851279</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F10" t="n">
-        <v>250.6112985851279</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G10" t="n">
-        <v>250.6112985851279</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="H10" t="n">
-        <v>92.86292601765805</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="I10" t="n">
-        <v>92.86292601765805</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.6112985851279</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,55 +5032,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.026712950149</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.342224744262</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.342224744262</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>1100.342224744262</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.5496456007323</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,49 +5263,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>223.1552313137079</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582206</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>799.6537879979912</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X16" t="n">
-        <v>1020.446367141521</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.6537879979912</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5749,52 +5749,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>4027.624275985003</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>3799.634725086986</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y22" t="n">
-        <v>3578.842145943456</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1188.662491981114</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1188.662491981114</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1188.662491981114</v>
+        <v>1051.184443115636</v>
       </c>
       <c r="V25" t="n">
-        <v>933.9780037752275</v>
+        <v>796.4999549097488</v>
       </c>
       <c r="W25" t="n">
-        <v>644.5608337382669</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X25" t="n">
-        <v>416.5712828402495</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.5712828402495</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6229,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095317</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.474758001781</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281742</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945775</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164472</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4520.375241843984</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>4231.246603057542</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>3976.562114851655</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>3687.144944814694</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954965</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="X31" t="n">
-        <v>130.9054447954965</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9054447954965</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954965</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>893.5623804327212</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>724.6261975048143</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>574.5095580924785</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>426.5964645100854</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>426.5964645100854</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>822.9672145333731</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V37" t="n">
-        <v>568.2827263274862</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W37" t="n">
-        <v>278.8655562905255</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>1075.210845262961</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U40" t="n">
-        <v>822.148054050878</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>822.148054050878</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>822.148054050878</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>822.148054050878</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>121.7597025423748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>531.3977182706318</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X43" t="n">
-        <v>303.4081673726145</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.4081673726145</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>364.7173639423009</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>364.7173639423009</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>874.9271131227918</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>585.5099430858311</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>585.5099430858311</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y46" t="n">
-        <v>364.7173639423009</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814589</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>85.30006332127708</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127741</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934472</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127745</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,13 +11071,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799435</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>143.7866903669019</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>26.21700102288918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>48.8408432116521</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271324</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0.733921596376149</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>64.53040428912217</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.4805103800787</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>73.66253759665381</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>115.5623585656776</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>99.74106297588415</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>146.4805103800788</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024087</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>142.1963834921096</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>30.2241659075866</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.9575686936376</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327922</v>
@@ -26346,16 +26346,16 @@
         <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
         <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.253865941821149e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.669621439</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26450,13 +26450,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241777</v>
+        <v>-254872.6766241776</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903669</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425942</v>
+        <v>-85726.93967398176</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626368</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626366</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700432</v>
+        <v>263009.8776103213</v>
       </c>
       <c r="K6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029148</v>
       </c>
       <c r="L6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="M6" t="n">
-        <v>305606.6728287991</v>
+        <v>304632.0815690772</v>
       </c>
       <c r="N6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="O6" t="n">
-        <v>440407.6880626362</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029147</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.067332427276436e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>210.9370728176444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>194.1370723978101</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>210.2069857336069</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.083893406638708</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>277.0848923691427</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>87.88390046306324</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>17.64056718375451</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>342.926188222342</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>39.53802575917774</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>6.669214433216347</v>
+        <v>18.8711391480367</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.056688876835134e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>127.2102422761838</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761841</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415062</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813865</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761842</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357223.637106818</v>
+        <v>2362162.899955851</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9788167.43659935</v>
+        <v>9788167.436599348</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>112.9856999467127</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>14.82811972447736</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>325.9002695577317</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>159.5623709710783</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>103.5280487491361</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.6999128968758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.3288200405003</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338504</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>176.8688121773851</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,13 +2140,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>221.7069481094552</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>173.9898110906231</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>212.5748148019235</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>57.64843562452381</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.5269768002181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>162.9688692947863</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>66.75250548749344</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>206.8064269214864</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>136.8736401074741</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>15.75208669539955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1894.539591564834</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1894.539591564834</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1536.273892958084</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1150.48564035984</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>739.4997355702321</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>321.535927468419</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1894.539591564834</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1894.539591564834</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4403,25 +4403,25 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625995</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685583</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1333.375306685583</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>947.5870540873386</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>536.6011492977311</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625995</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859355</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>959.5129866402885</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4895,40 +4895,40 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>80.53774953804151</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,58 +5032,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.785243411008</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555207</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>223.1552313137079</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>634.0455001582206</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>880.8106280646848</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765191</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395585</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,28 +5767,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181194</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201021</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1051.184443115636</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>796.4999549097488</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>507.0827848727882</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,13 +6250,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.599783924192</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688034</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609626</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>731.3177283550757</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>441.9005583181151</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>441.9005583181151</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>881.753191430675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1284.194235404445</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1284.194235404445</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.194235404445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1284.194235404445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1063.401656260915</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432673</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153604</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153604</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153604</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,46 +6864,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201021</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735071</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>893.5623804327212</v>
+        <v>874.9271131227877</v>
       </c>
       <c r="C37" t="n">
-        <v>724.6261975048143</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>574.5095580924785</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>426.5964645100854</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>426.5964645100854</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471151</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909229</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.210845262961</v>
+        <v>874.9271131227877</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.210845262961</v>
+        <v>874.9271131227877</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.210845262961</v>
+        <v>874.9271131227877</v>
       </c>
       <c r="X37" t="n">
-        <v>1075.210845262961</v>
+        <v>874.9271131227877</v>
       </c>
       <c r="Y37" t="n">
-        <v>1075.210845262961</v>
+        <v>874.9271131227877</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7572,49 +7572,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655742</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305963</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870662</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,13 +7727,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7809,19 +7809,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>85.30006332127708</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.30006332127741</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>360.5026862907262</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>223.6742649934472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>33.08849621799435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>48.8408432116521</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>64.53040428912217</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>44.59484226147168</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>73.66253759665381</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>87.77261239840743</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.277951803841518</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.74106297588415</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>14.74113413690284</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>115.2640032163539</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>209.9575686936376</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327916</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>3.253865941821149e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.669621439</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,10 +26438,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26450,13 +26450,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241776</v>
+        <v>-254872.6766241778</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903667</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903664</v>
       </c>
       <c r="E6" t="n">
-        <v>-85726.93967398176</v>
+        <v>-84849.80754023217</v>
       </c>
       <c r="F6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="G6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="H6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366645</v>
       </c>
       <c r="I6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="J6" t="n">
-        <v>263009.8776103213</v>
+        <v>263887.0097440716</v>
       </c>
       <c r="K6" t="n">
-        <v>439433.0968029148</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="L6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="M6" t="n">
-        <v>304632.0815690772</v>
+        <v>305509.2137028275</v>
       </c>
       <c r="N6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="O6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="P6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.228936664</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.067332427276436e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>210.9370728176444</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>101.6953328227612</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>210.2069857336069</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>87.88390046306324</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>14.85334183789325</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>112.9202716085217</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.53802575917774</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>18.8711391480367</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.056688876835134e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,31 +34061,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,31 +34298,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>127.2102422761838</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>127.2102422761841</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415062</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>609.7603912467504</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556174</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>374.2497035813865</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789685</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
